--- a/biology/Médecine/Bexarotène/Bexarotène.xlsx
+++ b/biology/Médecine/Bexarotène/Bexarotène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bexarot%C3%A8ne</t>
+          <t>Bexarotène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le bexarotène est un antinéoplasique indiqué par voie orale par la FDA (en 2000) contre un lymphome cutané des cellules T[2]. Il a été utilisé hors AMM pour le cancer du poumon[3], le cancer du sein et le sarcome de Kaposi.
-Une étude menée sur des souris montre que la molécule à une capacité à induire l’élimination transitoire des plaques beta-amyloïdes telles qu'elles peuvent être retrouvées dans une maladie d’Alzheimer[4].
+Le bexarotène est un antinéoplasique indiqué par voie orale par la FDA (en 2000) contre un lymphome cutané des cellules T. Il a été utilisé hors AMM pour le cancer du poumon, le cancer du sein et le sarcome de Kaposi.
+Une étude menée sur des souris montre que la molécule à une capacité à induire l’élimination transitoire des plaques beta-amyloïdes telles qu'elles peuvent être retrouvées dans une maladie d’Alzheimer.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bexarot%C3%A8ne</t>
+          <t>Bexarotène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synthèse chimique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 M. F. Boehm, R. A. Heyman, L. Zhi, C. K. Hwang, S. White, A. Nadzan, (en) Brevet U.S. 5,780,676 (1998).
